--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_MCPS_General.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1.10673458558518</v>
+        <v>1.818061203487019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>1.298246623877678</v>
+        <v>1.343249355914538</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1.255011094666094</v>
+        <v>1.497911852313694</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>1.178219531125906</v>
+        <v>1.493714502735786</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.187908763415526</v>
+        <v>1.308718891269988</v>
       </c>
     </row>
   </sheetData>
